--- a/white_list.xlsx
+++ b/white_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,468 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>22.200.13.168</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>156.139.47.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>228.112.147.239</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>47.184.112.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>107.146.99.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>157.123.85.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>83.162.102.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>72.44.37.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>177.140.182.155</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>22.200.13.168</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>156.139.47.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>228.112.147.239</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>47.184.112.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>107.146.99.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>157.123.85.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>83.162.102.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>72.44.37.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>177.140.182.155</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22.200.13.168</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>156.139.47.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>228.112.147.239</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>47.184.112.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>107.146.99.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>157.123.85.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>83.162.102.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>72.44.37.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>177.140.182.155</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>22.200.13.168</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>156.139.47.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>228.112.147.239</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>47.184.112.238</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>107.146.99.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>157.123.85.146</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>83.162.102.110</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>72.44.37.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>177.140.182.155</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>136.235.245.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/white_list.xlsx
+++ b/white_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A92"/>
+  <dimension ref="A1:A284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,630 +450,1974 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>103.13.31.54</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>103.237.98.71</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>203.107.1.34</t>
+          <t>103.57.251.94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>203.107.1.33</t>
+          <t>103.84.173.180</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>224.0.0.1</t>
+          <t>104.149.135.242</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>162.159.36.2</t>
+          <t>104.149.136.254</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>84.64.1.18</t>
+          <t>104.149.148.126</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>203.107.1.35</t>
+          <t>104.149.149.66</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>224.0.0.1</t>
+          <t>107.181.187.73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>162.159.36.2</t>
+          <t>109.166.37.247</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>84.64.1.18</t>
+          <t>109.166.38.81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>203.107.1.35</t>
+          <t>111.90.143.71</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>224.0.0.1</t>
+          <t>111.90.143.72</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>162.159.36.2</t>
+          <t>111.90.143.73</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>84.64.1.18</t>
+          <t>119.81.204.72</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>203.107.1.35</t>
+          <t>119.81.212.75</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>224.0.0.1</t>
+          <t>123.23.23.23</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>162.159.36.2</t>
+          <t>123.26.26.26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>84.64.1.18</t>
+          <t>123.30.175.70</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>203.107.1.35</t>
+          <t>123.30.175.73</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>224.0.0.1</t>
+          <t>123.30.175.82</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>162.159.36.2</t>
+          <t>123.30.175.83</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>84.64.1.18</t>
+          <t>123.30.175.84</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>203.107.1.35</t>
+          <t>123.30.175.86</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>123.30.175.88</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>123.30.175.89</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>123.30.175.97</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22.200.13.168</t>
+          <t>123.30.175.98</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>156.139.47.169</t>
+          <t>123.30.175.99</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>228.112.147.239</t>
+          <t>125.235.36.154</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>47.184.112.238</t>
+          <t>130.117.190.139</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>107.146.99.211</t>
+          <t>135.125.237.222</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>157.123.85.146</t>
+          <t>136.235.245.14</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>83.162.102.110</t>
+          <t>137.184.40.197</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>72.44.37.158</t>
+          <t>137.220.55.40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>177.140.182.155</t>
+          <t>138.199.22.67</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>138.199.46.225</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>139.180.179.206</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>139.99.170.160</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22.200.13.168</t>
+          <t>139.99.170.245</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>156.139.47.169</t>
+          <t>139.99.171.174</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>228.112.147.239</t>
+          <t>139.99.239.244</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>47.184.112.238</t>
+          <t>141.164.39.169</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>107.146.99.211</t>
+          <t>141.164.39.61</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>157.123.85.146</t>
+          <t>141.164.56.171</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>83.162.102.110</t>
+          <t>141.94.31.178</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>72.44.37.158</t>
+          <t>141.95.1.155</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>177.140.182.155</t>
+          <t>142.93.212.121</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>146.185.219.240</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>146.75.42.172</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>147.182.190.81</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22.200.13.168</t>
+          <t>151.248.68.200</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>156.139.47.169</t>
+          <t>154.16.57.220</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>228.112.147.239</t>
+          <t>158.247.221.111</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>47.184.112.238</t>
+          <t>158.51.124.25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>107.146.99.211</t>
+          <t>158.51.124.33</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>157.123.85.146</t>
+          <t>158.51.125.137</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>83.162.102.110</t>
+          <t>158.51.125.142</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>72.44.37.158</t>
+          <t>158.51.125.192</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>177.140.182.155</t>
+          <t>158.51.125.194</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>158.51.125.195</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>158.51.125.196</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>158.51.126.131</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>22.200.13.168</t>
+          <t>158.51.126.134</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>156.139.47.169</t>
+          <t>158.51.126.26</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>228.112.147.239</t>
+          <t>162.159.36.2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>47.184.112.238</t>
+          <t>162.220.245.219</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>107.146.99.211</t>
+          <t>173.255.206.70</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>157.123.85.146</t>
+          <t>175.100.107.150</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>83.162.102.110</t>
+          <t>175.102.68.98</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>72.44.37.158</t>
+          <t>178.209.51.164</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>177.140.182.155</t>
+          <t>18.133.240.222</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>18.184.157.80</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>185.228.168.168</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>185.59.220.170</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>187.1.180.36</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>188.34.180.231</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>191.96.70.244</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>191.96.71.238</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>193.0.14.129</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>193.239.179.230</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>193.45.6.7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>194.184.207.10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>194.184.207.129</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>195.181.165.160</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>195.206.165.140</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>230.197.206.226</t>
+          <t>196.46.190.52</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>136.235.245.14</t>
+          <t>198.244.148.10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20.81.87.38</t>
+          <t>198.255.74.221</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>198.255.78.121</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>198.41.0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>198.97.190.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>199.7.83.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>199.7.91.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20.81.87.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>202.12.27.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>203.107.1.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>203.107.1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>203.107.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>203.107.1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>203.113.131.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>203.113.131.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>203.113.182.144</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>205.199.44.156</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>207.44.199.159</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>211.212.237.203</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>212.103.48.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>212.73.221.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>213.152.183.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>216.128.178.113</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>216.238.75.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>223.6.6.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>224.0.0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>23.106.252.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
           <t>230.197.206.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>239.65.3.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>3.142.255.184</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>34.245.126.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>35.180.57.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>37.235.49.103</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>37.48.82.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>37.9.35.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>37.9.35.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>38.111.117.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>38.77.64.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>38.77.64.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>38.95.109.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4.28.136.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>44.241.52.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>44.241.78.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>45.11.1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>45.11.2.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>45.141.156.103</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>45.141.157.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>45.79.175.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>45.88.41.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>45.89.245.235</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>45.91.67.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>46.246.93.161</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>5.180.77.215</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>5.180.77.220</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>5.181.234.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>5.181.25.136</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>5.188.111.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>5.188.111.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>5.188.111.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>5.188.111.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>5.188.168.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>5.188.168.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>5.188.188.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>5.188.226.227</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>5.189.223.129</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>5.189.223.132</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>5.189.223.133</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>5.189.223.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>5.8.41.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>5.8.41.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>5.8.41.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>5.8.41.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>5.8.41.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>5.8.41.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>5.8.41.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>5.8.41.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>5.8.41.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>50.7.1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>51.161.115.233</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>51.195.151.202</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>51.195.202.129</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>51.195.235.180</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>51.195.254.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>51.68.228.174</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>51.75.160.196</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>51.79.145.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>51.79.146.235</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>51.79.165.231</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>51.79.205.184</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>51.79.222.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>51.79.223.117</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>51.79.223.124</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>51.79.251.241</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>51.83.185.254</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>52.11.247.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>54.149.150.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>54.38.159.219</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>54.38.159.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>54.83.33.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>60.190.222.139</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>62.115.64.234</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>62.115.64.242</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>62.115.64.250</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>64.62.194.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>66.187.4.161</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>66.187.4.165</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>66.187.4.185</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>66.187.4.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>66.187.5.127</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>66.187.5.139</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>66.187.5.193</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>66.187.5.206</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>66.187.5.207</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>66.187.5.208</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>66.187.5.209</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>66.187.5.211</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>66.187.5.212</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>66.187.6.121</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>66.187.6.125</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>66.187.6.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>66.187.6.148</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>66.187.6.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>66.187.6.179</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>66.187.6.182</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>66.187.6.184</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>66.187.6.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>66.187.6.202</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>66.187.6.204</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>66.187.6.205</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>66.187.6.206</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>66.187.6.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>66.187.6.217</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>66.187.6.222</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>66.187.6.225</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>66.187.6.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>66.187.6.227</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>66.187.6.228</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>77.234.42.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>77.234.43.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>8.8.4.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>8.8.8.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>80.231.123.131</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>80.239.174.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>84.17.55.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>84.247.224.226</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>84.247.224.228</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>84.247.224.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>84.64.1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>85.65.3.100</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>89.46.223.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>9.9.9.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>92.223.85.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>92.38.133.157</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>92.38.133.158</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>92.38.133.159</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>92.38.133.162</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>92.38.133.164</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>92.38.133.169</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>92.38.149.219</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>92.38.149.224</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>92.38.149.227</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>92.38.149.229</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>92.38.149.230</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>92.38.149.240</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>92.38.149.243</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>92.38.149.245</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>92.38.149.246</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>92.38.149.247</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>94.75.236.122</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>94.75.236.123</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>16.230.248.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>186.154.69.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>199.10.58.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>145.161.1.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>31.3.62.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>16.230.248.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>186.154.69.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>199.10.58.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>145.161.1.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>31.3.62.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>16.230.248.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>186.154.69.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>199.10.58.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>145.161.1.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>31.3.62.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>16.230.248.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>186.154.69.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>199.10.58.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>145.161.1.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>31.3.62.147</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>16.230.248.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>186.154.69.105</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>199.10.58.218</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>145.161.1.216</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>31.3.62.147</t>
         </is>
       </c>
     </row>

--- a/white_list.xlsx
+++ b/white_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A284"/>
+  <dimension ref="A1:A264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,146 +2281,6 @@
         </is>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>16.230.248.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>186.154.69.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>199.10.58.218</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>145.161.1.216</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>31.3.62.147</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>16.230.248.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>186.154.69.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>199.10.58.218</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>145.161.1.216</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>31.3.62.147</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>16.230.248.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>186.154.69.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>199.10.58.218</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>145.161.1.216</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>31.3.62.147</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>16.230.248.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>186.154.69.105</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>199.10.58.218</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>145.161.1.216</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>31.3.62.147</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
